--- a/Dataset/Meteorologi Jakarta Utara 2019-2021/M-3-20-JU.xlsx
+++ b/Dataset/Meteorologi Jakarta Utara 2019-2021/M-3-20-JU.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>ID WMO</t>
   </si>
@@ -65,33 +65,18 @@
     <t>ff_avg</t>
   </si>
   <si>
-    <t>ddd_car</t>
-  </si>
-  <si>
     <t>01-03-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
     <t>02-03-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">C </t>
-  </si>
-  <si>
     <t>03-03-2020</t>
   </si>
   <si>
-    <t>NW</t>
-  </si>
-  <si>
     <t>04-03-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">W </t>
-  </si>
-  <si>
     <t>05-03-2020</t>
   </si>
   <si>
@@ -122,15 +107,9 @@
     <t>14-03-2020</t>
   </si>
   <si>
-    <t>NE</t>
-  </si>
-  <si>
     <t>15-03-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">S </t>
-  </si>
-  <si>
     <t>16-03-2020</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
   </si>
   <si>
     <t>ff_avg: Kecepatan angin rata-rata (m/s)</t>
-  </si>
-  <si>
-    <t>ddd_car: Arah angin terbanyak (°)</t>
   </si>
 </sst>
 </file>
@@ -597,10 +573,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -611,10 +587,9 @@
     <col min="4" max="4" width="13" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" customWidth="true" style="0"/>
     <col min="6" max="6" width="13" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -623,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -647,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -655,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -674,13 +649,10 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>27.6</v>
@@ -697,13 +669,10 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>28.2</v>
@@ -720,13 +689,10 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>28.8</v>
@@ -743,13 +709,10 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>28.2</v>
@@ -766,13 +729,10 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>28.1</v>
@@ -789,13 +749,10 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>28.9</v>
@@ -812,13 +769,10 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>28.3</v>
@@ -835,13 +789,10 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>29.1</v>
@@ -856,13 +807,10 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>30</v>
@@ -877,13 +825,10 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>29.9</v>
@@ -900,13 +845,10 @@
       <c r="F19" s="2">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>29.6</v>
@@ -921,13 +863,10 @@
       <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>27.9</v>
@@ -944,13 +883,10 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>27.6</v>
@@ -967,13 +903,10 @@
       <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>29.3</v>
@@ -990,13 +923,10 @@
       <c r="F23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>29.4</v>
@@ -1013,13 +943,10 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>28.4</v>
@@ -1036,13 +963,10 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>29</v>
@@ -1059,13 +983,10 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>27.8</v>
@@ -1082,13 +1003,10 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>28</v>
@@ -1103,13 +1021,10 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>27.3</v>
@@ -1126,13 +1041,10 @@
       <c r="F29" s="2">
         <v>2</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>27.9</v>
@@ -1149,13 +1061,10 @@
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>28.6</v>
@@ -1172,13 +1081,10 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>28.3</v>
@@ -1195,13 +1101,10 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>28.8</v>
@@ -1218,13 +1121,10 @@
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>28.4</v>
@@ -1239,13 +1139,10 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>28.4</v>
@@ -1262,13 +1159,10 @@
       <c r="F35" s="2">
         <v>2</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>28.6</v>
@@ -1285,13 +1179,10 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>29.2</v>
@@ -1306,13 +1197,10 @@
       <c r="F37" s="2">
         <v>2</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>29.4</v>
@@ -1327,13 +1215,10 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>28.5</v>
@@ -1348,13 +1233,10 @@
       <c r="F39" s="2">
         <v>2</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
         <v>28.7</v>
@@ -1371,53 +1253,45 @@
       <c r="F40" s="2">
         <v>2</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
